--- a/predict/raw/Karhutla.xlsx
+++ b/predict/raw/Karhutla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/05211840000012_mahasiswa_integra_its_ac_id/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp72\htdocs\ShelterAPI\predict\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46131CE4-153A-40A1-81E0-87CCF494A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08537D2B-9A21-4346-830A-C3BC614019CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B07264F-8C52-44DE-A566-FCC43E9D04A1}"/>
+    <workbookView xWindow="1035" yWindow="7170" windowWidth="3855" windowHeight="8925" xr2:uid="{7B07264F-8C52-44DE-A566-FCC43E9D04A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -134,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -625,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDECC4E-1CCE-4847-826B-CE4A3B9A1E02}">
   <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P347" workbookViewId="0">
-      <selection activeCell="Q353" sqref="Q353"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +641,12 @@
     <col min="20" max="20" width="19.28515625" customWidth="1"/>
     <col min="21" max="21" width="14.140625" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
